--- a/admission_data.xlsx
+++ b/admission_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="511">
   <si>
     <t>班级</t>
   </si>
@@ -707,6 +707,9 @@
     <t>侦查学</t>
   </si>
   <si>
+    <t>贵州中医药大</t>
+  </si>
+  <si>
     <t>中医学5+3一体化</t>
   </si>
   <si>
@@ -1494,6 +1497,117 @@
   <si>
     <t>青岛理工大学</t>
   </si>
+  <si>
+    <t>苏州城市学院</t>
+  </si>
+  <si>
+    <t>健康服务与管理</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>深圳技术大学</t>
+  </si>
+  <si>
+    <t>宁波大学</t>
+  </si>
+  <si>
+    <t>临床药学</t>
+  </si>
+  <si>
+    <t>南京财经大学</t>
+  </si>
+  <si>
+    <t>金融学类</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>工科实验班</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>智能建造</t>
+  </si>
+  <si>
+    <t>遵义师范学院</t>
+  </si>
+  <si>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>辽宁中医药大学杏林学院</t>
+  </si>
+  <si>
+    <t>华南农业大学</t>
+  </si>
+  <si>
+    <t>家具设计与工程</t>
+  </si>
+  <si>
+    <t>工业工程</t>
+  </si>
+  <si>
+    <t>湖南师范大学</t>
+  </si>
+  <si>
+    <t>公安管理</t>
+  </si>
+  <si>
+    <t>土木类</t>
+  </si>
+  <si>
+    <t>安徽工业大学</t>
+  </si>
+  <si>
+    <t>资源循环科学与工程</t>
+  </si>
+  <si>
+    <t>赣南师范大学</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>南通大学</t>
+  </si>
+  <si>
+    <t>环境科学与工程</t>
+  </si>
+  <si>
+    <t>厦门大学</t>
+  </si>
+  <si>
+    <t>智能建造和智能结构</t>
+  </si>
+  <si>
+    <t>工科实验班(电子与信息类)</t>
+  </si>
+  <si>
+    <t>光电信息科学与工程</t>
+  </si>
+  <si>
+    <t>大连理工大学盘锦校区</t>
+  </si>
+  <si>
+    <t>天津职业技术师范大学</t>
+  </si>
+  <si>
+    <t>交通运输</t>
+  </si>
+  <si>
+    <t>科学教育（优师）</t>
+  </si>
+  <si>
+    <t>中国地质大学</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
 </sst>
 </file>
 
@@ -1505,7 +1619,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,13 +1638,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2016,28 +2123,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2046,118 +2156,115 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2524,10 +2631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="O396" sqref="O396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="4"/>
@@ -3026,7 +3133,9 @@
       </c>
     </row>
     <row r="36" ht="16.25" spans="1:4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>2207</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -4426,10 +4535,10 @@
         <v>2213</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>43</v>
@@ -4440,10 +4549,10 @@
         <v>2213</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>20</v>
@@ -4454,7 +4563,7 @@
         <v>2214</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>71</v>
@@ -4468,10 +4577,10 @@
         <v>2213</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>15</v>
@@ -4485,7 +4594,7 @@
         <v>41</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>43</v>
@@ -4496,10 +4605,10 @@
         <v>2213</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>43</v>
@@ -4510,10 +4619,10 @@
         <v>2213</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>10</v>
@@ -4524,10 +4633,10 @@
         <v>2201</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
@@ -4552,7 +4661,7 @@
         <v>2212</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="4" t="s">
@@ -4567,7 +4676,7 @@
         <v>219</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>142</v>
@@ -4592,7 +4701,7 @@
         <v>2201</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>66</v>
@@ -4606,7 +4715,7 @@
         <v>2208</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>158</v>
@@ -4620,10 +4729,10 @@
         <v>2214</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>43</v>
@@ -4634,7 +4743,7 @@
         <v>2208</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>218</v>
@@ -4648,7 +4757,7 @@
         <v>2208</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>31</v>
@@ -4662,10 +4771,10 @@
         <v>2208</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>43</v>
@@ -4676,10 +4785,10 @@
         <v>2208</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>28</v>
@@ -4690,10 +4799,10 @@
         <v>2208</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>56</v>
@@ -4704,10 +4813,10 @@
         <v>2208</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>20</v>
@@ -4718,10 +4827,10 @@
         <v>2208</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>25</v>
@@ -4732,10 +4841,10 @@
         <v>2201</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>46</v>
@@ -4749,7 +4858,7 @@
         <v>41</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>43</v>
@@ -4760,7 +4869,7 @@
         <v>2208</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>211</v>
@@ -4774,7 +4883,7 @@
         <v>2208</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>45</v>
@@ -4788,10 +4897,10 @@
         <v>2201</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>20</v>
@@ -4802,13 +4911,13 @@
         <v>2208</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" ht="32.45" spans="1:4">
@@ -4816,10 +4925,10 @@
         <v>2208</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>10</v>
@@ -4847,7 +4956,7 @@
         <v>44</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>46</v>
@@ -4858,10 +4967,10 @@
         <v>2204</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>104</v>
@@ -4889,7 +4998,7 @@
         <v>74</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>43</v>
@@ -4900,10 +5009,10 @@
         <v>2207</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>46</v>
@@ -4914,7 +5023,7 @@
         <v>2210</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="4" t="s">
@@ -4926,10 +5035,10 @@
         <v>2207</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>43</v>
@@ -4940,7 +5049,7 @@
         <v>2208</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>160</v>
@@ -4968,10 +5077,10 @@
         <v>2212</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>32</v>
@@ -4982,13 +5091,13 @@
         <v>2203</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" ht="32.45" spans="1:4">
@@ -4996,10 +5105,10 @@
         <v>2208</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>53</v>
@@ -5010,10 +5119,10 @@
         <v>2212</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>32</v>
@@ -5024,7 +5133,7 @@
         <v>2212</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>77</v>
@@ -5038,7 +5147,7 @@
         <v>2212</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>102</v>
@@ -5055,7 +5164,7 @@
         <v>89</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>91</v>
@@ -5080,7 +5189,7 @@
         <v>2208</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>66</v>
@@ -5094,7 +5203,7 @@
         <v>2203</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>45</v>
@@ -5108,10 +5217,10 @@
         <v>2213</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>25</v>
@@ -5136,10 +5245,10 @@
         <v>2209</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>25</v>
@@ -5150,10 +5259,10 @@
         <v>2212</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>104</v>
@@ -5195,7 +5304,7 @@
         <v>161</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>32</v>
@@ -5206,7 +5315,7 @@
         <v>2208</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>158</v>
@@ -5223,7 +5332,7 @@
         <v>41</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>43</v>
@@ -5234,10 +5343,10 @@
         <v>2207</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>82</v>
@@ -5251,7 +5360,7 @@
         <v>89</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>91</v>
@@ -5262,7 +5371,7 @@
         <v>2208</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>31</v>
@@ -5290,7 +5399,7 @@
         <v>2208</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>131</v>
@@ -5318,7 +5427,7 @@
         <v>2210</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>131</v>
@@ -5335,7 +5444,7 @@
         <v>89</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>91</v>
@@ -5346,10 +5455,10 @@
         <v>2203</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>53</v>
@@ -5374,10 +5483,10 @@
         <v>2210</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>35</v>
@@ -5391,7 +5500,7 @@
         <v>138</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>43</v>
@@ -5405,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>43</v>
@@ -5419,7 +5528,7 @@
         <v>213</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>32</v>
@@ -5445,7 +5554,7 @@
         <v>138</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>43</v>
@@ -5456,10 +5565,10 @@
         <v>2210</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>142</v>
@@ -5470,10 +5579,10 @@
         <v>2210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>126</v>
@@ -5487,7 +5596,7 @@
         <v>41</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>43</v>
@@ -5510,7 +5619,7 @@
         <v>2206</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>19</v>
@@ -5538,10 +5647,10 @@
         <v>2212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>53</v>
@@ -5552,10 +5661,10 @@
         <v>2204</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
@@ -5566,10 +5675,10 @@
         <v>2214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>32</v>
@@ -5580,10 +5689,10 @@
         <v>2203</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>53</v>
@@ -5597,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>46</v>
@@ -5608,10 +5717,10 @@
         <v>2203</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>46</v>
@@ -5622,13 +5731,13 @@
         <v>2209</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" ht="48.7" spans="1:4">
@@ -5636,13 +5745,13 @@
         <v>2203</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" ht="48.7" spans="1:4">
@@ -5650,7 +5759,7 @@
         <v>2212</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>81</v>
@@ -5664,10 +5773,10 @@
         <v>2208</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>159</v>
@@ -5678,10 +5787,10 @@
         <v>2210</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>53</v>
@@ -5692,10 +5801,10 @@
         <v>2210</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>53</v>
@@ -5706,10 +5815,10 @@
         <v>2208</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>7</v>
@@ -5720,10 +5829,10 @@
         <v>2208</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>35</v>
@@ -5734,7 +5843,7 @@
         <v>2206</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>178</v>
@@ -5765,7 +5874,7 @@
         <v>157</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>159</v>
@@ -5779,7 +5888,7 @@
         <v>207</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>10</v>
@@ -5793,7 +5902,7 @@
         <v>212</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>53</v>
@@ -5818,7 +5927,7 @@
         <v>2210</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>181</v>
@@ -5847,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>20</v>
@@ -5858,10 +5967,10 @@
         <v>2210</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>43</v>
@@ -5872,7 +5981,7 @@
         <v>2210</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>178</v>
@@ -5886,13 +5995,13 @@
         <v>2212</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="242" ht="32.45" spans="1:4">
@@ -5903,7 +6012,7 @@
         <v>111</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>7</v>
@@ -5917,7 +6026,7 @@
         <v>207</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>10</v>
@@ -5928,7 +6037,7 @@
         <v>2204</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>42</v>
@@ -5956,10 +6065,10 @@
         <v>2204</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>7</v>
@@ -5970,10 +6079,10 @@
         <v>2204</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>56</v>
@@ -5984,10 +6093,10 @@
         <v>2208</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>53</v>
@@ -6012,10 +6121,10 @@
         <v>2212</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>56</v>
@@ -6026,7 +6135,7 @@
         <v>2205</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>6</v>
@@ -6040,13 +6149,13 @@
         <v>2204</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" ht="32.45" spans="1:4">
@@ -6054,13 +6163,13 @@
         <v>2206</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" ht="48.7" spans="1:4">
@@ -6068,10 +6177,10 @@
         <v>2205</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>10</v>
@@ -6082,7 +6191,7 @@
         <v>2208</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>48</v>
@@ -6096,10 +6205,10 @@
         <v>2204</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>82</v>
@@ -6113,7 +6222,7 @@
         <v>89</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>91</v>
@@ -6124,10 +6233,10 @@
         <v>2204</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>28</v>
@@ -6138,7 +6247,7 @@
         <v>2213</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>141</v>
@@ -6152,7 +6261,7 @@
         <v>2205</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>127</v>
@@ -6166,10 +6275,10 @@
         <v>2205</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>20</v>
@@ -6180,10 +6289,10 @@
         <v>2204</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>135</v>
@@ -6208,7 +6317,7 @@
         <v>2204</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>173</v>
@@ -6222,10 +6331,10 @@
         <v>2204</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>142</v>
@@ -6236,7 +6345,7 @@
         <v>2212</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>88</v>
@@ -6264,13 +6373,13 @@
         <v>2208</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" ht="32.45" spans="1:4">
@@ -6278,10 +6387,10 @@
         <v>2202</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>15</v>
@@ -6292,10 +6401,10 @@
         <v>2202</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>46</v>
@@ -6309,7 +6418,7 @@
         <v>41</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>43</v>
@@ -6323,7 +6432,7 @@
         <v>95</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>7</v>
@@ -6334,10 +6443,10 @@
         <v>2202</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>53</v>
@@ -6351,7 +6460,7 @@
         <v>33</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>35</v>
@@ -6365,7 +6474,7 @@
         <v>95</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>7</v>
@@ -6379,7 +6488,7 @@
         <v>121</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>123</v>
@@ -6393,7 +6502,7 @@
         <v>124</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>126</v>
@@ -6407,7 +6516,7 @@
         <v>133</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>135</v>
@@ -6418,7 +6527,7 @@
         <v>2204</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>173</v>
@@ -6432,10 +6541,10 @@
         <v>2205</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
@@ -6446,10 +6555,10 @@
         <v>2205</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>82</v>
@@ -6460,7 +6569,7 @@
         <v>2214</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>158</v>
@@ -6474,7 +6583,7 @@
         <v>2204</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>48</v>
@@ -6491,7 +6600,7 @@
         <v>51</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>53</v>
@@ -6516,7 +6625,7 @@
         <v>2204</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>6</v>
@@ -6533,7 +6642,7 @@
         <v>51</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>53</v>
@@ -6544,10 +6653,10 @@
         <v>2205</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>25</v>
@@ -6558,10 +6667,10 @@
         <v>2203</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>32</v>
@@ -6572,7 +6681,7 @@
         <v>2206</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>27</v>
@@ -6586,10 +6695,10 @@
         <v>2204</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>7</v>
@@ -6600,10 +6709,10 @@
         <v>2209</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>126</v>
@@ -6617,7 +6726,7 @@
         <v>200</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>46</v>
@@ -6628,10 +6737,10 @@
         <v>2204</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>82</v>
@@ -6656,10 +6765,10 @@
         <v>2209</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>56</v>
@@ -6684,10 +6793,10 @@
         <v>2207</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>28</v>
@@ -6698,10 +6807,10 @@
         <v>2205</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>43</v>
@@ -6712,10 +6821,10 @@
         <v>2205</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>159</v>
@@ -6726,7 +6835,7 @@
         <v>2204</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>31</v>
@@ -6740,10 +6849,10 @@
         <v>2209</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>7</v>
@@ -6754,13 +6863,13 @@
         <v>2211</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="304" ht="32.45" spans="1:4">
@@ -6768,10 +6877,10 @@
         <v>2204</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>28</v>
@@ -6782,10 +6891,10 @@
         <v>2204</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>25</v>
@@ -6799,7 +6908,7 @@
         <v>41</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>43</v>
@@ -6813,7 +6922,7 @@
         <v>74</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>43</v>
@@ -6827,7 +6936,7 @@
         <v>121</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>123</v>
@@ -6838,10 +6947,10 @@
         <v>2202</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>135</v>
@@ -6852,7 +6961,7 @@
         <v>2208</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>9</v>
@@ -6866,13 +6975,13 @@
         <v>2207</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="312" ht="32.45" spans="1:4">
@@ -6883,7 +6992,7 @@
         <v>59</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>28</v>
@@ -6894,7 +7003,7 @@
         <v>2203</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>6</v>
@@ -6908,13 +7017,13 @@
         <v>2201</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="315" ht="32.45" spans="1:4">
@@ -6936,10 +7045,10 @@
         <v>2206</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>53</v>
@@ -6953,7 +7062,7 @@
         <v>198</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>53</v>
@@ -6978,10 +7087,10 @@
         <v>2207</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>104</v>
@@ -7006,10 +7115,10 @@
         <v>2207</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>53</v>
@@ -7020,10 +7129,10 @@
         <v>2214</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>126</v>
@@ -7034,7 +7143,7 @@
         <v>2213</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>84</v>
@@ -7048,10 +7157,10 @@
         <v>2213</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>28</v>
@@ -7062,10 +7171,10 @@
         <v>2203</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>43</v>
@@ -7093,7 +7202,7 @@
         <v>219</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>142</v>
@@ -7104,10 +7213,10 @@
         <v>2209</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>159</v>
@@ -7132,7 +7241,7 @@
         <v>2203</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>31</v>
@@ -7149,7 +7258,7 @@
         <v>95</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>7</v>
@@ -7174,10 +7283,10 @@
         <v>2214</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>46</v>
@@ -7205,10 +7314,10 @@
         <v>138</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="336" ht="32.45" spans="1:4">
@@ -7233,7 +7342,7 @@
         <v>74</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>43</v>
@@ -7244,10 +7353,10 @@
         <v>2210</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>159</v>
@@ -7261,7 +7370,7 @@
         <v>54</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>56</v>
@@ -7272,7 +7381,7 @@
         <v>2214</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>71</v>
@@ -7286,13 +7395,13 @@
         <v>2214</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="342" ht="32.45" spans="1:4">
@@ -7300,10 +7409,10 @@
         <v>2206</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>56</v>
@@ -7317,7 +7426,7 @@
         <v>138</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>43</v>
@@ -7328,10 +7437,10 @@
         <v>2209</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>82</v>
@@ -7345,7 +7454,7 @@
         <v>74</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>43</v>
@@ -7356,10 +7465,10 @@
         <v>2207</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>56</v>
@@ -7370,7 +7479,7 @@
         <v>2209</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>170</v>
@@ -7384,10 +7493,10 @@
         <v>2204</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>142</v>
@@ -7398,7 +7507,7 @@
         <v>2214</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>127</v>
@@ -7426,10 +7535,10 @@
         <v>2209</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>159</v>
@@ -7440,10 +7549,10 @@
         <v>2203</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>20</v>
@@ -7485,7 +7594,7 @@
         <v>180</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>25</v>
@@ -7496,10 +7605,10 @@
         <v>2207</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>82</v>
@@ -7510,10 +7619,10 @@
         <v>2210</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>43</v>
@@ -7524,10 +7633,10 @@
         <v>2209</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>126</v>
@@ -7552,7 +7661,7 @@
         <v>2213</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>84</v>
@@ -7569,7 +7678,7 @@
         <v>153</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>10</v>
@@ -7580,10 +7689,10 @@
         <v>2214</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>53</v>
@@ -7608,10 +7717,10 @@
         <v>2212</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>43</v>
@@ -7622,7 +7731,7 @@
         <v>2210</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="2" t="s">
@@ -7637,7 +7746,7 @@
         <v>41</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>43</v>
@@ -7648,10 +7757,10 @@
         <v>2204</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>53</v>
@@ -7662,10 +7771,10 @@
         <v>2201</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>15</v>
@@ -7676,10 +7785,10 @@
         <v>2202</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>32</v>
@@ -7707,7 +7816,7 @@
         <v>121</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>123</v>
@@ -7718,10 +7827,10 @@
         <v>2208</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>159</v>
@@ -7735,7 +7844,7 @@
         <v>138</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>43</v>
@@ -7746,7 +7855,7 @@
         <v>2202</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>158</v>
@@ -7763,7 +7872,7 @@
         <v>33</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>35</v>
@@ -7777,7 +7886,7 @@
         <v>74</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>43</v>
@@ -7788,7 +7897,7 @@
         <v>2203</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>27</v>
@@ -7816,10 +7925,10 @@
         <v>2210</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>10</v>
@@ -7847,7 +7956,7 @@
         <v>74</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>43</v>
@@ -7861,7 +7970,7 @@
         <v>72</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>46</v>
@@ -7900,10 +8009,10 @@
         <v>2204</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>20</v>
@@ -7914,7 +8023,7 @@
         <v>2204</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>109</v>
@@ -7931,7 +8040,7 @@
         <v>143</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>53</v>
@@ -7945,7 +8054,7 @@
         <v>124</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>126</v>
@@ -7956,7 +8065,7 @@
         <v>2209</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>88</v>
@@ -7970,13 +8079,13 @@
         <v>2210</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="391" ht="64.95" spans="1:4">
@@ -7984,10 +8093,10 @@
         <v>2204</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>46</v>
@@ -7998,7 +8107,7 @@
         <v>2205</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>134</v>
@@ -8012,13 +8121,13 @@
         <v>2209</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="394" ht="48.7" spans="1:4">
@@ -8029,7 +8138,7 @@
         <v>153</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>10</v>
@@ -8040,7 +8149,7 @@
         <v>2213</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>221</v>
@@ -8068,10 +8177,10 @@
         <v>2201</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>46</v>
@@ -8096,10 +8205,10 @@
         <v>2210</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>53</v>
@@ -8110,13 +8219,643 @@
         <v>2209</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="401" ht="32.45" spans="1:4">
+      <c r="A401" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="402" ht="32.45" spans="1:4">
+      <c r="A402" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="403" ht="32.45" spans="1:4">
+      <c r="A403" s="2">
+        <v>2211</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="404" ht="32.45" spans="1:4">
+      <c r="A404" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" ht="32.45" spans="1:4">
+      <c r="A405" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="406" ht="16.25" spans="1:4">
+      <c r="A406" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="407" ht="32.45" spans="1:4">
+      <c r="A407" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" ht="32.45" spans="1:4">
+      <c r="A408" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" ht="48.7" spans="1:4">
+      <c r="A409" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="410" ht="16.25" spans="1:4">
+      <c r="A410" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="411" ht="32.45" spans="1:4">
+      <c r="A411" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" ht="16.25" spans="1:4">
+      <c r="A412" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="413" ht="32.45" spans="1:4">
+      <c r="A413" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="414" ht="32.45" spans="1:4">
+      <c r="A414" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="415" ht="32.45" spans="1:4">
+      <c r="A415" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="416" ht="16.25" spans="1:4">
+      <c r="A416" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="417" ht="32.45" spans="1:4">
+      <c r="A417" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="418" ht="32.45" spans="1:4">
+      <c r="A418" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="419" ht="32.45" spans="1:4">
+      <c r="A419" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" ht="32.45" spans="1:4">
+      <c r="A420" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="421" ht="16.25" spans="1:4">
+      <c r="A421" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="422" ht="48.7" spans="1:4">
+      <c r="A422" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" ht="32.45" spans="1:4">
+      <c r="A423" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" ht="32.45" spans="1:4">
+      <c r="A424" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" ht="32.45" spans="1:4">
+      <c r="A425" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" ht="32.45" spans="1:4">
+      <c r="A426" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="427" ht="32.45" spans="1:4">
+      <c r="A427" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="428" ht="32.45" spans="1:4">
+      <c r="A428" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="429" ht="32.45" spans="1:4">
+      <c r="A429" s="2">
+        <v>2213</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" ht="48.7" spans="1:4">
+      <c r="A430" s="2">
+        <v>2204</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" ht="16.25" spans="1:4">
+      <c r="A431" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="432" ht="32.45" spans="1:4">
+      <c r="A432" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="433" ht="48.7" spans="1:4">
+      <c r="A433" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="434" ht="32.45" spans="1:4">
+      <c r="A434" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="435" ht="48.7" spans="1:4">
+      <c r="A435" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="436" ht="32.45" spans="1:4">
+      <c r="A436" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="437" ht="32.45" spans="1:4">
+      <c r="A437" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" ht="48.7" spans="1:4">
+      <c r="A438" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="439" ht="16.25" spans="1:4">
+      <c r="A439" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="440" ht="48.7" spans="1:4">
+      <c r="A440" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="441" ht="48.7" spans="1:4">
+      <c r="A441" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="442" ht="48.7" spans="1:4">
+      <c r="A442" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" ht="48.7" spans="1:4">
+      <c r="A443" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="444" ht="32.45" spans="1:4">
+      <c r="A444" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="445" ht="32.45" spans="1:4">
+      <c r="A445" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
